--- a/excelexamples/Пациент.xlsx
+++ b/excelexamples/Пациент.xlsx
@@ -27,9 +27,6 @@
     <t>ФИО</t>
   </si>
   <si>
-    <t>Дата рождения</t>
-  </si>
-  <si>
     <t>Пол</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>М</t>
+  </si>
+  <si>
+    <t>Дата_рождения</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -406,10 +406,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -417,13 +417,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2">
         <v>25732</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -431,13 +431,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
         <v>32594</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -445,13 +445,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>36026</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -459,13 +459,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>36808</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -473,13 +473,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
         <v>36152</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
